--- a/טבלאות db.xlsx
+++ b/טבלאות db.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\גילה\Documents\מחשבים\פרויקט\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Esther\studies\אחר\הפרויקט\github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E9025D-0D1D-47FB-A107-7E2F0819A7A2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="68">
   <si>
     <t>id</t>
   </si>
@@ -218,12 +217,24 @@
   <si>
     <t>whom to pay</t>
   </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>בעבודה</t>
+  </si>
+  <si>
+    <t>גילה</t>
+  </si>
+  <si>
+    <t>אסתר</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -270,8 +281,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF92D050"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="177"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -290,8 +316,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -319,11 +351,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -355,11 +402,23 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="21">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -396,9 +455,40 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
           <bgColor theme="4" tint="-0.249977111117893"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -425,12 +515,24 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -457,6 +559,29 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -481,12 +606,27 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -513,108 +653,19 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -630,130 +681,130 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="טבלה2" displayName="טבלה2" ref="I18:I22" totalsRowShown="0" headerRowDxfId="9" tableBorderDxfId="20">
-  <autoFilter ref="I18:I22" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="טבלה2" displayName="טבלה2" ref="I18:I22" totalsRowShown="0" headerRowDxfId="20" tableBorderDxfId="19">
+  <autoFilter ref="I18:I22"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="אנשים לתיקים"/>
+    <tableColumn id="1" name="אנשים לתיקים"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="טבלה14" displayName="טבלה14" ref="S18:S21" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="S18:S21" xr:uid="{00000000-0009-0000-0100-00000E000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="טבלה14" displayName="טבלה14" ref="S18:S21" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="S18:S21"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="לינקים"/>
+    <tableColumn id="1" name="לינקים"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="טבלה15" displayName="טבלה15" ref="U18:U25" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="U18:U25" xr:uid="{00000000-0009-0000-0100-00000F000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="טבלה15" displayName="טבלה15" ref="U18:U25" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="U18:U25"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="תשלומים"/>
+    <tableColumn id="1" name="תשלומים"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{00000000-000C-0000-FFFF-FFFF0B000000}" name="טבלה16" displayName="טבלה16" ref="V7:V13" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="V7:V13" xr:uid="{00000000-0009-0000-0100-000010000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="טבלה16" displayName="טבלה16" ref="V7:V13" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="V7:V13"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0B00-000001000000}" name="פרטי נכס"/>
+    <tableColumn id="1" name="פרטי נכס"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{00000000-000C-0000-FFFF-FFFF0C000000}" name="טבלה17" displayName="טבלה17" ref="W18:W20" totalsRowShown="0">
-  <autoFilter ref="W18:W20" xr:uid="{00000000-0009-0000-0100-000011000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="טבלה17" displayName="טבלה17" ref="W18:W20" totalsRowShown="0">
+  <autoFilter ref="W18:W20"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0C00-000001000000}" name="ערים"/>
+    <tableColumn id="1" name="ערים"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="טבלה4" displayName="טבלה4" ref="G18:G27" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="19" tableBorderDxfId="18">
-  <autoFilter ref="G18:G27" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="טבלה4" displayName="טבלה4" ref="G18:G27" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16">
+  <autoFilter ref="G18:G27"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="אנשים"/>
+    <tableColumn id="1" name="אנשים"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="טבלה5" displayName="טבלה5" ref="H7:H11" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="17" tableBorderDxfId="16">
-  <autoFilter ref="H7:H11" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="טבלה5" displayName="טבלה5" ref="H7:H11" totalsRowShown="0" headerRowDxfId="15" headerRowBorderDxfId="14" tableBorderDxfId="13">
+  <autoFilter ref="H7:H11"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="אנ&quot;ש"/>
+    <tableColumn id="1" name="אנ&quot;ש"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="טבלה7" displayName="טבלה7" ref="L7:L14" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="15" tableBorderDxfId="14">
-  <autoFilter ref="L7:L14" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="טבלה7" displayName="טבלה7" ref="L7:L14" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10">
+  <autoFilter ref="L7:L14"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="תיקים"/>
+    <tableColumn id="1" name="תיקים"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="טבלה8" displayName="טבלה8" ref="N7:N12" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="13" tableBorderDxfId="12">
-  <autoFilter ref="N7:N12" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="טבלה8" displayName="טבלה8" ref="N7:N12" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7">
+  <autoFilter ref="N7:N12"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="מסמכים"/>
+    <tableColumn id="1" name="מסמכים"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="טבלה10" displayName="טבלה10" ref="P7:P15" totalsRowShown="0" headerRowDxfId="4">
-  <autoFilter ref="P7:P15" xr:uid="{00000000-0009-0000-0100-00000A000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="טבלה10" displayName="טבלה10" ref="P7:P15" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="P7:P15"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="פעולות בפועל"/>
+    <tableColumn id="1" name="פעולות בפועל"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="טבלה11" displayName="טבלה11" ref="Q18:Q21" totalsRowShown="0" headerRowDxfId="11">
-  <autoFilter ref="Q18:Q21" xr:uid="{00000000-0009-0000-0100-00000B000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="טבלה11" displayName="טבלה11" ref="Q18:Q21" totalsRowShown="0" headerRowDxfId="5">
+  <autoFilter ref="Q18:Q21"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="פעולות לתיקים"/>
+    <tableColumn id="1" name="פעולות לתיקים"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="טבלה12" displayName="טבלה12" ref="R7:R16" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="R7:R16" xr:uid="{00000000-0009-0000-0100-00000C000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="טבלה12" displayName="טבלה12" ref="R7:R16" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="R7:R16"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="תבניות פעולה"/>
+    <tableColumn id="1" name="תבניות פעולה"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="טבלה13" displayName="טבלה13" ref="T7:T11" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="T7:T11" xr:uid="{00000000-0009-0000-0100-00000D000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="טבלה13" displayName="טבלה13" ref="T7:T11" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="T7:T11"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="תבניות מסמך"/>
+    <tableColumn id="1" name="תבניות מסמך"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1021,19 +1072,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="G6:W27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="G1:W27"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="I1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="N31" sqref="N31:S33"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="7" max="25" width="10.58203125" customWidth="1"/>
+    <col min="7" max="25" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="7:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="7:22" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="7:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N2" s="20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="7:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N3" s="19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="7:22" x14ac:dyDescent="0.2">
       <c r="G6" s="1"/>
       <c r="H6" s="8" t="s">
         <v>50</v>
@@ -1043,7 +1105,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="7:22" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="7:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G7" s="1"/>
       <c r="H7" s="14" t="s">
         <v>49</v>
@@ -1070,7 +1132,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="7:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="7:22" x14ac:dyDescent="0.2">
       <c r="H8" s="5" t="s">
         <v>0</v>
       </c>
@@ -1093,7 +1155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="7:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="7:22" x14ac:dyDescent="0.2">
       <c r="H9" s="3" t="s">
         <v>10</v>
       </c>
@@ -1117,7 +1179,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="7:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="7:22" x14ac:dyDescent="0.2">
       <c r="H10" t="s">
         <v>30</v>
       </c>
@@ -1143,7 +1205,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="7:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="7:22" x14ac:dyDescent="0.2">
       <c r="H11" s="9" t="s">
         <v>48</v>
       </c>
@@ -1169,7 +1231,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="7:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="7:22" x14ac:dyDescent="0.2">
       <c r="L12" t="s">
         <v>13</v>
       </c>
@@ -1186,7 +1248,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="7:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="7:22" x14ac:dyDescent="0.2">
       <c r="L13" t="s">
         <v>31</v>
       </c>
@@ -1200,7 +1262,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="7:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="7:22" x14ac:dyDescent="0.2">
       <c r="L14" t="s">
         <v>37</v>
       </c>
@@ -1211,7 +1273,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="7:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="7:22" x14ac:dyDescent="0.2">
       <c r="P15" t="s">
         <v>55</v>
       </c>
@@ -1222,7 +1284,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="7:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="7:22" x14ac:dyDescent="0.2">
       <c r="R16" t="s">
         <v>56</v>
       </c>
@@ -1233,7 +1295,18 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="7:23" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="7:23" x14ac:dyDescent="0.2">
+      <c r="S17" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="U17" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="W17" s="18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="7:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G18" s="14" t="s">
         <v>7</v>
       </c>
@@ -1253,7 +1326,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="19" spans="7:23" x14ac:dyDescent="0.2">
       <c r="G19" s="3" t="s">
         <v>0</v>
       </c>
@@ -1273,7 +1346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="20" spans="7:23" x14ac:dyDescent="0.2">
       <c r="G20" s="3" t="s">
         <v>1</v>
       </c>
@@ -1293,7 +1366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="21" spans="7:23" x14ac:dyDescent="0.2">
       <c r="G21" s="3" t="s">
         <v>29</v>
       </c>
@@ -1313,7 +1386,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="22" spans="7:23" x14ac:dyDescent="0.2">
       <c r="G22" s="3" t="s">
         <v>8</v>
       </c>
@@ -1324,7 +1397,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="23" spans="7:23" x14ac:dyDescent="0.2">
       <c r="G23" s="3" t="s">
         <v>9</v>
       </c>
@@ -1332,7 +1405,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="24" spans="7:23" x14ac:dyDescent="0.2">
       <c r="G24" s="3" t="s">
         <v>2</v>
       </c>
@@ -1340,7 +1413,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="25" spans="7:23" x14ac:dyDescent="0.2">
       <c r="G25" t="s">
         <v>36</v>
       </c>
@@ -1348,12 +1421,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="26" spans="7:23" x14ac:dyDescent="0.2">
       <c r="G26" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="27" spans="7:23" x14ac:dyDescent="0.2">
       <c r="G27" t="s">
         <v>38</v>
       </c>

--- a/טבלאות db.xlsx
+++ b/טבלאות db.xlsx
@@ -1075,8 +1075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="G1:W27"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="I1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="M1" zoomScale="90" workbookViewId="0">
+      <selection activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/טבלאות db.xlsx
+++ b/טבלאות db.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="67">
   <si>
     <t>id</t>
   </si>
@@ -219,9 +219,6 @@
   </si>
   <si>
     <t>V</t>
-  </si>
-  <si>
-    <t>בעבודה</t>
   </si>
   <si>
     <t>גילה</t>
@@ -234,7 +231,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -277,13 +274,6 @@
     <font>
       <sz val="8"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -370,7 +360,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -403,7 +393,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
@@ -1076,7 +1065,7 @@
   <dimension ref="G1:W27"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="M1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="U9" sqref="U9"/>
+      <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1086,13 +1075,13 @@
   <sheetData>
     <row r="1" spans="7:22" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="7:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="N2" s="20" t="s">
+      <c r="N2" s="19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="7:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N3" s="18" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="7:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="N3" s="19" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="6" spans="7:22" x14ac:dyDescent="0.2">
@@ -1101,6 +1090,9 @@
         <v>50</v>
       </c>
       <c r="I6" s="1"/>
+      <c r="T6" s="17" t="s">
+        <v>64</v>
+      </c>
       <c r="V6" s="7" t="s">
         <v>58</v>
       </c>
@@ -1297,12 +1289,12 @@
     </row>
     <row r="17" spans="7:23" x14ac:dyDescent="0.2">
       <c r="S17" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="U17" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="W17" s="18" t="s">
+      <c r="U17" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="W17" s="17" t="s">
         <v>64</v>
       </c>
     </row>

--- a/טבלאות db.xlsx
+++ b/טבלאות db.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="68">
   <si>
     <t>id</t>
   </si>
@@ -225,13 +225,16 @@
   </si>
   <si>
     <t>אסתר</t>
+  </si>
+  <si>
+    <t>In Proccess</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -284,6 +287,13 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="177"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -360,7 +370,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -395,6 +405,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1064,8 +1075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="G1:W27"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="M1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="K1" zoomScale="90" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1090,6 +1101,12 @@
         <v>50</v>
       </c>
       <c r="I6" s="1"/>
+      <c r="N6" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="R6" s="17" t="s">
+        <v>64</v>
+      </c>
       <c r="T6" s="17" t="s">
         <v>64</v>
       </c>

--- a/טבלאות db.xlsx
+++ b/טבלאות db.xlsx
@@ -1075,8 +1075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="G1:W27"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="K1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="M1" zoomScale="90" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1101,7 +1101,10 @@
         <v>50</v>
       </c>
       <c r="I6" s="1"/>
-      <c r="N6" s="20" t="s">
+      <c r="N6" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="P6" s="20" t="s">
         <v>67</v>
       </c>
       <c r="R6" s="17" t="s">
@@ -1172,9 +1175,7 @@
       <c r="L9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="N9" s="3"/>
       <c r="P9" t="s">
         <v>22</v>
       </c>

--- a/טבלאות db.xlsx
+++ b/טבלאות db.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="67">
   <si>
     <t>id</t>
   </si>
@@ -225,16 +225,13 @@
   </si>
   <si>
     <t>אסתר</t>
-  </si>
-  <si>
-    <t>In Proccess</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -287,13 +284,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="177"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -370,7 +360,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -405,7 +395,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1075,8 +1064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="G1:W27"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="M1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="M4" zoomScale="90" workbookViewId="0">
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1104,8 +1093,8 @@
       <c r="N6" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="P6" s="20" t="s">
-        <v>67</v>
+      <c r="P6" s="17" t="s">
+        <v>64</v>
       </c>
       <c r="R6" s="17" t="s">
         <v>64</v>
